--- a/result/dc_fund_analysis.xlsx
+++ b/result/dc_fund_analysis.xlsx
@@ -5,19 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pratyusatripathy/my_work/fund_analysis/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12A9714-9B12-F04A-8606-A9C861060D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335625FF-434E-2C45-AC93-FA5B47DF9290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="Regime_Analysis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -209,7 +222,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -289,7 +302,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -655,7 +668,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -695,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="6">
-        <v>9.4307662773994272E-2</v>
+        <v>9.43076627739943E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1073,9 +1086,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I56"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -3719,7 +3751,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="E29" sqref="E29:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
